--- a/TrabalhoPPIOO/Tabelas.xlsx
+++ b/TrabalhoPPIOO/Tabelas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Java\TrabalhoPPIOO\"/>
@@ -1535,6 +1535,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,16 +1567,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1847,6 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6068,11 +6069,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan2"/>
   <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6082,4178 +6084,4178 @@
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="8" width="19.140625" style="33" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30">
-        <v>1</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="18">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="18">
         <v>15</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="18">
         <v>20</v>
       </c>
-      <c r="F1" s="30">
-        <v>100</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="18">
+        <v>100</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="18">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="18">
         <v>20</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="18">
         <v>14</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="18">
         <v>85</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="18">
         <v>3</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="19">
         <v>40</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="18">
         <v>0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="18">
         <v>95</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+      <c r="A4" s="18">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="18">
         <v>20</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="18">
         <v>25</v>
       </c>
-      <c r="F4" s="30">
-        <v>100</v>
-      </c>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="18">
+        <v>100</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="18">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="18">
         <v>10</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
-        <v>100</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="18">
+        <v>100</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="20">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="18">
         <v>6</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="18">
         <v>10</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="18">
         <v>120</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="18">
         <v>70</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="18">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="18">
         <v>15</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="18">
         <v>75</v>
       </c>
-      <c r="F7" s="30">
-        <v>100</v>
-      </c>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="18">
+        <v>100</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="18">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="18">
         <v>30</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="18">
         <v>40</v>
       </c>
-      <c r="F8" s="30">
-        <v>100</v>
-      </c>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="18">
+        <v>100</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+      <c r="A9" s="18">
         <v>9</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="18">
         <v>20</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="F9" s="30">
-        <v>100</v>
-      </c>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="18">
+        <v>100</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="A10" s="18">
         <v>10</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="18">
         <v>15</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="18">
         <v>95</v>
       </c>
-      <c r="F10" s="30">
-        <v>100</v>
-      </c>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="18">
+        <v>100</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+      <c r="A11" s="18">
         <v>11</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="18">
         <v>20</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="18">
         <v>0</v>
       </c>
-      <c r="F11" s="30">
-        <v>100</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="18">
+        <v>100</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="18">
         <v>30</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="18">
         <v>30</v>
       </c>
-      <c r="F12" s="30">
-        <v>100</v>
-      </c>
-      <c r="G12" s="32" t="s">
+      <c r="F12" s="18">
+        <v>100</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="18">
         <v>13</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="18">
         <v>20</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="18">
         <v>85</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="18">
         <v>90</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="18">
         <v>14</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="18">
         <v>25</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="18">
         <v>70</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="18">
         <v>95</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+      <c r="A15" s="18">
         <v>15</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="18">
         <v>20</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="18">
         <v>50</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="18">
         <v>90</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="18">
         <v>16</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="18">
         <v>15</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="18">
         <v>60</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="18">
         <v>85</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+      <c r="A17" s="18">
         <v>17</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="18">
         <v>20</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="18">
         <v>0</v>
       </c>
-      <c r="F17" s="30">
-        <v>100</v>
-      </c>
-      <c r="G17" s="32" t="s">
+      <c r="F17" s="18">
+        <v>100</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="18">
         <v>18</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="18">
         <v>25</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="18">
         <v>80</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="18">
         <v>80</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="18">
         <v>19</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="18">
         <v>25</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="18">
         <v>40</v>
       </c>
-      <c r="F19" s="30">
-        <v>100</v>
-      </c>
-      <c r="G19" s="32" t="s">
+      <c r="F19" s="18">
+        <v>100</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+      <c r="A20" s="18">
         <v>20</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="18">
         <v>5</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="18">
         <v>120</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="18">
         <v>85</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="18">
         <v>21</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="18">
         <v>15</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="18">
         <v>75</v>
       </c>
-      <c r="F21" s="30">
-        <v>100</v>
-      </c>
-      <c r="G21" s="32" t="s">
+      <c r="F21" s="18">
+        <v>100</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+      <c r="A22" s="18">
         <v>22</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="18">
         <v>15</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="18">
         <v>15</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="18">
         <v>70</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+      <c r="A23" s="18">
         <v>23</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="18">
         <v>15</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="18">
         <v>95</v>
       </c>
-      <c r="F23" s="30">
-        <v>100</v>
-      </c>
-      <c r="G23" s="32" t="s">
+      <c r="F23" s="18">
+        <v>100</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="18">
         <v>24</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="18">
         <v>20</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="18">
         <v>80</v>
       </c>
-      <c r="F24" s="30">
-        <v>100</v>
-      </c>
-      <c r="G24" s="32" t="s">
+      <c r="F24" s="18">
+        <v>100</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+      <c r="A25" s="18">
         <v>25</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="18">
         <v>15</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="18">
         <v>70</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="18">
         <v>95</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+      <c r="A26" s="18">
         <v>26</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="18">
         <v>20</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="30">
-        <v>100</v>
-      </c>
-      <c r="G26" s="32" t="s">
+      <c r="F26" s="18">
+        <v>100</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+      <c r="A27" s="18">
         <v>27</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="18">
         <v>35</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="18">
         <v>35</v>
       </c>
-      <c r="F27" s="30">
-        <v>100</v>
-      </c>
-      <c r="G27" s="32" t="s">
+      <c r="F27" s="18">
+        <v>100</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+      <c r="A28" s="18">
         <v>28</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="18">
         <v>5</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="18">
         <v>140</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="18">
         <v>90</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="32"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+      <c r="A29" s="18">
         <v>29</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="18">
         <v>35</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="18">
         <v>35</v>
       </c>
-      <c r="F29" s="30">
-        <v>100</v>
-      </c>
-      <c r="G29" s="32" t="s">
+      <c r="F29" s="18">
+        <v>100</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+      <c r="A30" s="18">
         <v>30</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="18">
         <v>10</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="18">
         <v>0</v>
       </c>
-      <c r="F30" s="30">
-        <v>100</v>
-      </c>
-      <c r="G30" s="32" t="s">
+      <c r="F30" s="18">
+        <v>100</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+      <c r="A31" s="18">
         <v>31</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="18">
         <v>30</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="18">
         <v>20</v>
       </c>
-      <c r="F31" s="30">
-        <v>100</v>
-      </c>
-      <c r="G31" s="32" t="s">
+      <c r="F31" s="18">
+        <v>100</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="18">
         <v>32</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="18">
         <v>15</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="18">
         <v>0</v>
       </c>
-      <c r="F32" s="30">
-        <v>100</v>
-      </c>
-      <c r="G32" s="32" t="s">
+      <c r="F32" s="18">
+        <v>100</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
+      <c r="A33" s="18">
         <v>33</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="18">
         <v>20</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="18">
         <v>20</v>
       </c>
-      <c r="F33" s="30">
-        <v>100</v>
-      </c>
-      <c r="G33" s="32" t="s">
+      <c r="F33" s="18">
+        <v>100</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+      <c r="A34" s="18">
         <v>34</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="18">
         <v>10</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="18">
         <v>0</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="18">
         <v>90</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+      <c r="A35" s="18">
         <v>35</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="18">
         <v>10</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="18">
         <v>40</v>
       </c>
-      <c r="F35" s="30">
-        <v>100</v>
-      </c>
-      <c r="G35" s="32" t="s">
+      <c r="F35" s="18">
+        <v>100</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
+      <c r="A36" s="18">
         <v>36</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="18">
         <v>20</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="18">
         <v>70</v>
       </c>
-      <c r="F36" s="30">
-        <v>100</v>
-      </c>
-      <c r="G36" s="32" t="s">
+      <c r="F36" s="18">
+        <v>100</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
+      <c r="A37" s="18">
         <v>37</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="18">
         <v>25</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="18">
         <v>55</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="18">
         <v>95</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="32"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+      <c r="A38" s="18">
         <v>38</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="18">
         <v>15</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="18">
         <v>0</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="18">
         <v>75</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+      <c r="A39" s="18">
         <v>39</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="18">
         <v>10</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="18">
         <v>120</v>
       </c>
-      <c r="F39" s="30">
-        <v>100</v>
-      </c>
-      <c r="G39" s="32" t="s">
+      <c r="F39" s="18">
+        <v>100</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="32"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+      <c r="A40" s="18">
         <v>40</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="18">
         <v>15</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="18">
         <v>0</v>
       </c>
-      <c r="F40" s="30">
-        <v>100</v>
-      </c>
-      <c r="G40" s="32" t="s">
+      <c r="F40" s="18">
+        <v>100</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="18">
         <v>41</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="18">
         <v>30</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="18">
         <v>0</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="18">
         <v>75</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
+      <c r="A42" s="18">
         <v>42</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="18">
         <v>10</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="18">
         <v>35</v>
       </c>
-      <c r="F42" s="30">
-        <v>100</v>
-      </c>
-      <c r="G42" s="32" t="s">
+      <c r="F42" s="18">
+        <v>100</v>
+      </c>
+      <c r="G42" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="32"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="30">
+      <c r="A43" s="18">
         <v>43</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="18">
         <v>20</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="18">
         <v>65</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="18">
         <v>85</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="30">
+      <c r="A44" s="18">
         <v>44</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="18">
         <v>10</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="18">
         <v>50</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="18">
         <v>90</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
+      <c r="A45" s="18">
         <v>45</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="18">
         <v>10</v>
       </c>
-      <c r="E45" s="30">
-        <v>100</v>
-      </c>
-      <c r="F45" s="30">
-        <v>100</v>
-      </c>
-      <c r="G45" s="32" t="s">
+      <c r="E45" s="18">
+        <v>100</v>
+      </c>
+      <c r="F45" s="18">
+        <v>100</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="32"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+      <c r="A46" s="18">
         <v>46</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="18">
         <v>10</v>
       </c>
-      <c r="E46" s="30">
-        <v>100</v>
-      </c>
-      <c r="F46" s="30">
-        <v>100</v>
-      </c>
-      <c r="G46" s="32" t="s">
+      <c r="E46" s="18">
+        <v>100</v>
+      </c>
+      <c r="F46" s="18">
+        <v>100</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="32"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+      <c r="A47" s="18">
         <v>47</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="18">
         <v>5</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="18">
         <v>0</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="18">
         <v>30</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="30">
+      <c r="A48" s="18">
         <v>48</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="18">
         <v>20</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="18">
         <v>65</v>
       </c>
-      <c r="F48" s="30">
-        <v>100</v>
-      </c>
-      <c r="G48" s="32" t="s">
+      <c r="F48" s="18">
+        <v>100</v>
+      </c>
+      <c r="G48" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
+      <c r="A49" s="18">
         <v>49</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="18">
         <v>5</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="18">
         <v>120</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="18">
         <v>90</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
+      <c r="A50" s="18">
         <v>50</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="18">
         <v>30</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="18">
         <v>0</v>
       </c>
-      <c r="F50" s="30">
-        <v>100</v>
-      </c>
-      <c r="G50" s="32" t="s">
+      <c r="F50" s="18">
+        <v>100</v>
+      </c>
+      <c r="G50" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="32"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+      <c r="A51" s="18">
         <v>51</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="18">
         <v>10</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="18">
         <v>95</v>
       </c>
-      <c r="F51" s="30">
-        <v>100</v>
-      </c>
-      <c r="G51" s="32" t="s">
+      <c r="F51" s="18">
+        <v>100</v>
+      </c>
+      <c r="G51" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+      <c r="A52" s="18">
         <v>52</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="18">
         <v>15</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="18">
         <v>75</v>
       </c>
-      <c r="F52" s="30">
-        <v>100</v>
-      </c>
-      <c r="G52" s="32" t="s">
+      <c r="F52" s="18">
+        <v>100</v>
+      </c>
+      <c r="G52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="H52" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
+      <c r="A53" s="18">
         <v>53</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="18">
         <v>30</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="18">
         <v>0</v>
       </c>
-      <c r="F53" s="30">
-        <v>100</v>
-      </c>
-      <c r="G53" s="32" t="s">
+      <c r="F53" s="18">
+        <v>100</v>
+      </c>
+      <c r="G53" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="32"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="30">
+      <c r="A54" s="18">
         <v>54</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="18">
         <v>20</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="18">
         <v>15</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="18">
         <v>85</v>
       </c>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H54" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
+      <c r="A55" s="18">
         <v>55</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="18">
         <v>10</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="18">
         <v>0</v>
       </c>
-      <c r="F55" s="30">
-        <v>100</v>
-      </c>
-      <c r="G55" s="32" t="s">
+      <c r="F55" s="18">
+        <v>100</v>
+      </c>
+      <c r="G55" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="32"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="30">
+      <c r="A56" s="18">
         <v>56</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="18">
         <v>20</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="18">
         <v>15</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="18">
         <v>75</v>
       </c>
-      <c r="G56" s="32" t="s">
+      <c r="G56" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
+      <c r="A57" s="18">
         <v>57</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="18">
         <v>25</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="18">
         <v>60</v>
       </c>
-      <c r="F57" s="30">
-        <v>100</v>
-      </c>
-      <c r="G57" s="32" t="s">
+      <c r="F57" s="18">
+        <v>100</v>
+      </c>
+      <c r="G57" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="32" t="s">
+      <c r="H57" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="30">
+      <c r="A58" s="18">
         <v>58</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="18">
         <v>15</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="18">
         <v>85</v>
       </c>
-      <c r="F58" s="30">
-        <v>100</v>
-      </c>
-      <c r="G58" s="32" t="s">
+      <c r="F58" s="18">
+        <v>100</v>
+      </c>
+      <c r="G58" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="32" t="s">
+      <c r="H58" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="30">
+      <c r="A59" s="18">
         <v>59</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="18">
         <v>15</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="18">
         <v>18</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="18">
         <v>85</v>
       </c>
-      <c r="G59" s="32" t="s">
+      <c r="G59" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H59" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="30">
+      <c r="A60" s="18">
         <v>60</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="18">
         <v>35</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="18">
         <v>10</v>
       </c>
-      <c r="F60" s="30">
-        <v>100</v>
-      </c>
-      <c r="G60" s="32" t="s">
+      <c r="F60" s="18">
+        <v>100</v>
+      </c>
+      <c r="G60" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
+      <c r="A61" s="18">
         <v>61</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="18">
         <v>30</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="18">
         <v>0</v>
       </c>
-      <c r="F61" s="30">
-        <v>100</v>
-      </c>
-      <c r="G61" s="32" t="s">
+      <c r="F61" s="18">
+        <v>100</v>
+      </c>
+      <c r="G61" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="32"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="30">
+      <c r="A62" s="18">
         <v>62</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="18">
         <v>30</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="18">
         <v>50</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="18">
         <v>95</v>
       </c>
-      <c r="G62" s="32" t="s">
+      <c r="G62" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="32"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
+      <c r="A63" s="18">
         <v>63</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="30">
+      <c r="D63" s="18">
         <v>40</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="18">
         <v>0</v>
       </c>
-      <c r="F63" s="30">
-        <v>100</v>
-      </c>
-      <c r="G63" s="32" t="s">
+      <c r="F63" s="18">
+        <v>100</v>
+      </c>
+      <c r="G63" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H63" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
+      <c r="A64" s="18">
         <v>64</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="30">
+      <c r="D64" s="18">
         <v>20</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="18">
         <v>0</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="18">
         <v>55</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G64" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="32"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="30">
+      <c r="A65" s="18">
         <v>65</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="30">
+      <c r="D65" s="18">
         <v>10</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="18">
         <v>70</v>
       </c>
-      <c r="F65" s="30">
-        <v>100</v>
-      </c>
-      <c r="G65" s="32" t="s">
+      <c r="F65" s="18">
+        <v>100</v>
+      </c>
+      <c r="G65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="32"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="30">
+      <c r="A66" s="18">
         <v>66</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="30">
+      <c r="D66" s="18">
         <v>10</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="18">
         <v>15</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="18">
         <v>85</v>
       </c>
-      <c r="G66" s="32" t="s">
+      <c r="G66" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="H66" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="30">
+      <c r="A67" s="18">
         <v>67</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="30">
+      <c r="D67" s="18">
         <v>15</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="18">
         <v>0</v>
       </c>
-      <c r="F67" s="30">
-        <v>100</v>
-      </c>
-      <c r="G67" s="32" t="s">
+      <c r="F67" s="18">
+        <v>100</v>
+      </c>
+      <c r="G67" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="32" t="s">
+      <c r="H67" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
+      <c r="A68" s="18">
         <v>68</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="18">
         <v>15</v>
       </c>
-      <c r="E68" s="30">
-        <v>100</v>
-      </c>
-      <c r="F68" s="30">
-        <v>100</v>
-      </c>
-      <c r="G68" s="32" t="s">
+      <c r="E68" s="18">
+        <v>100</v>
+      </c>
+      <c r="F68" s="18">
+        <v>100</v>
+      </c>
+      <c r="G68" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="32" t="s">
+      <c r="H68" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="30">
+      <c r="A69" s="18">
         <v>69</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69" s="18">
         <v>10</v>
       </c>
-      <c r="E69" s="30">
-        <v>100</v>
-      </c>
-      <c r="F69" s="30">
+      <c r="E69" s="18">
+        <v>100</v>
+      </c>
+      <c r="F69" s="18">
         <v>75</v>
       </c>
-      <c r="G69" s="32" t="s">
+      <c r="G69" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="32"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="30">
+      <c r="A70" s="18">
         <v>70</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="18">
         <v>5</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="18">
         <v>170</v>
       </c>
-      <c r="F70" s="30">
-        <v>100</v>
-      </c>
-      <c r="G70" s="32" t="s">
+      <c r="F70" s="18">
+        <v>100</v>
+      </c>
+      <c r="G70" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H70" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="30">
+      <c r="A71" s="18">
         <v>71</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D71" s="18">
         <v>20</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="18">
         <v>0</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="18">
         <v>70</v>
       </c>
-      <c r="G71" s="32" t="s">
+      <c r="G71" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="H71" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="30">
+      <c r="A72" s="18">
         <v>72</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D72" s="18">
         <v>30</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="18">
         <v>0</v>
       </c>
-      <c r="F72" s="30">
-        <v>100</v>
-      </c>
-      <c r="G72" s="32" t="s">
+      <c r="F72" s="18">
+        <v>100</v>
+      </c>
+      <c r="G72" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="32"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="30">
+      <c r="A73" s="18">
         <v>73</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="30">
+      <c r="D73" s="18">
         <v>20</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="18">
         <v>15</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="18">
         <v>85</v>
       </c>
-      <c r="G73" s="32" t="s">
+      <c r="G73" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="32" t="s">
+      <c r="H73" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="30">
+      <c r="A74" s="18">
         <v>74</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="30">
+      <c r="D74" s="18">
         <v>15</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="18">
         <v>18</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="18">
         <v>80</v>
       </c>
-      <c r="G74" s="32" t="s">
+      <c r="G74" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="30">
+      <c r="A75" s="18">
         <v>75</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75" s="18">
         <v>30</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="18">
         <v>0</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="18">
         <v>75</v>
       </c>
-      <c r="G75" s="32" t="s">
+      <c r="G75" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="32" t="s">
+      <c r="H75" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="30">
+      <c r="A76" s="18">
         <v>76</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="18">
         <v>40</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="18">
         <v>0</v>
       </c>
-      <c r="F76" s="30">
-        <v>100</v>
-      </c>
-      <c r="G76" s="32" t="s">
+      <c r="F76" s="18">
+        <v>100</v>
+      </c>
+      <c r="G76" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="30">
+      <c r="A77" s="18">
         <v>77</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="18">
         <v>40</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="18">
         <v>0</v>
       </c>
-      <c r="F77" s="30">
-        <v>100</v>
-      </c>
-      <c r="G77" s="32" t="s">
+      <c r="F77" s="18">
+        <v>100</v>
+      </c>
+      <c r="G77" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="32" t="s">
+      <c r="H77" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="30">
+      <c r="A78" s="18">
         <v>78</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="30">
+      <c r="D78" s="18">
         <v>5</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="18">
         <v>0</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="18">
         <v>30</v>
       </c>
-      <c r="G78" s="32" t="s">
+      <c r="G78" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="H78" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="30">
+      <c r="A79" s="18">
         <v>79</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="30">
+      <c r="D79" s="18">
         <v>35</v>
       </c>
-      <c r="E79" s="30">
+      <c r="E79" s="18">
         <v>40</v>
       </c>
-      <c r="F79" s="30">
-        <v>100</v>
-      </c>
-      <c r="G79" s="32" t="s">
+      <c r="F79" s="18">
+        <v>100</v>
+      </c>
+      <c r="G79" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H79" s="32"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="30">
+      <c r="A80" s="18">
         <v>80</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="30">
+      <c r="D80" s="18">
         <v>30</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="18">
         <v>0</v>
       </c>
-      <c r="F80" s="30">
-        <v>100</v>
-      </c>
-      <c r="G80" s="32" t="s">
+      <c r="F80" s="18">
+        <v>100</v>
+      </c>
+      <c r="G80" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="32" t="s">
+      <c r="H80" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="30">
+      <c r="A81" s="18">
         <v>81</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="30">
+      <c r="D81" s="18">
         <v>15</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="18">
         <v>70</v>
       </c>
-      <c r="F81" s="30">
-        <v>100</v>
-      </c>
-      <c r="G81" s="32" t="s">
+      <c r="F81" s="18">
+        <v>100</v>
+      </c>
+      <c r="G81" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="32" t="s">
+      <c r="H81" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="30">
+      <c r="A82" s="18">
         <v>82</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="30">
+      <c r="D82" s="18">
         <v>25</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="18">
         <v>65</v>
       </c>
-      <c r="F82" s="30">
-        <v>100</v>
-      </c>
-      <c r="G82" s="32" t="s">
+      <c r="F82" s="18">
+        <v>100</v>
+      </c>
+      <c r="G82" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="32"/>
+      <c r="H82" s="20"/>
     </row>
     <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="30">
+      <c r="A83" s="18">
         <v>83</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="30">
+      <c r="D83" s="18">
         <v>5</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="18">
         <v>0</v>
       </c>
-      <c r="F83" s="30">
+      <c r="F83" s="18">
         <v>30</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G83" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="32" t="s">
+      <c r="H83" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="30">
+      <c r="A84" s="18">
         <v>84</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="30">
+      <c r="D84" s="18">
         <v>5</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="18">
         <v>150</v>
       </c>
-      <c r="F84" s="30">
+      <c r="F84" s="18">
         <v>90</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G84" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="32"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="30">
+      <c r="A85" s="18">
         <v>85</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="30">
+      <c r="D85" s="18">
         <v>15</v>
       </c>
-      <c r="E85" s="30">
+      <c r="E85" s="18">
         <v>80</v>
       </c>
-      <c r="F85" s="30">
+      <c r="F85" s="18">
         <v>90</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="G85" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="32" t="s">
+      <c r="H85" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="30">
+      <c r="A86" s="18">
         <v>86</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D86" s="30">
+      <c r="D86" s="18">
         <v>25</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="18">
         <v>50</v>
       </c>
-      <c r="F86" s="30">
-        <v>100</v>
-      </c>
-      <c r="G86" s="32" t="s">
+      <c r="F86" s="18">
+        <v>100</v>
+      </c>
+      <c r="G86" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H86" s="32"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="30">
+      <c r="A87" s="18">
         <v>87</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="30">
+      <c r="D87" s="18">
         <v>30</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="18">
         <v>0</v>
       </c>
-      <c r="F87" s="30">
-        <v>100</v>
-      </c>
-      <c r="G87" s="32" t="s">
+      <c r="F87" s="18">
+        <v>100</v>
+      </c>
+      <c r="G87" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="32" t="s">
+      <c r="H87" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="30">
+      <c r="A88" s="18">
         <v>88</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88" s="18">
         <v>10</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="18">
         <v>0</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="18">
         <v>75</v>
       </c>
-      <c r="G88" s="32" t="s">
+      <c r="G88" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="32" t="s">
+      <c r="H88" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="30">
+      <c r="A89" s="18">
         <v>89</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="30">
+      <c r="D89" s="18">
         <v>5</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="18">
         <v>120</v>
       </c>
-      <c r="F89" s="30">
+      <c r="F89" s="18">
         <v>75</v>
       </c>
-      <c r="G89" s="32" t="s">
+      <c r="G89" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="32"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="30">
+      <c r="A90" s="18">
         <v>90</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D90" s="30">
+      <c r="D90" s="18">
         <v>20</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="18">
         <v>80</v>
       </c>
-      <c r="F90" s="30">
+      <c r="F90" s="18">
         <v>85</v>
       </c>
-      <c r="G90" s="32" t="s">
+      <c r="G90" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H90" s="32"/>
+      <c r="H90" s="20"/>
     </row>
     <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="30">
+      <c r="A91" s="18">
         <v>91</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="30">
+      <c r="D91" s="18">
         <v>10</v>
       </c>
-      <c r="E91" s="30">
+      <c r="E91" s="18">
         <v>0</v>
       </c>
-      <c r="F91" s="30">
-        <v>100</v>
-      </c>
-      <c r="G91" s="32" t="s">
+      <c r="F91" s="18">
+        <v>100</v>
+      </c>
+      <c r="G91" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="32"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="30">
+      <c r="A92" s="18">
         <v>92</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="30">
+      <c r="D92" s="18">
         <v>10</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="18">
         <v>0</v>
       </c>
-      <c r="F92" s="30">
-        <v>100</v>
-      </c>
-      <c r="G92" s="32" t="s">
+      <c r="F92" s="18">
+        <v>100</v>
+      </c>
+      <c r="G92" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H92" s="32"/>
+      <c r="H92" s="20"/>
     </row>
     <row r="93" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="30">
+      <c r="A93" s="18">
         <v>93</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D93" s="30">
+      <c r="D93" s="18">
         <v>20</v>
       </c>
-      <c r="E93" s="30">
+      <c r="E93" s="18">
         <v>0</v>
       </c>
-      <c r="F93" s="30">
-        <v>100</v>
-      </c>
-      <c r="G93" s="32" t="s">
+      <c r="F93" s="18">
+        <v>100</v>
+      </c>
+      <c r="G93" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H93" s="32" t="s">
+      <c r="H93" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="30">
+      <c r="A94" s="18">
         <v>94</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D94" s="30">
+      <c r="D94" s="18">
         <v>20</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="18">
         <v>40</v>
       </c>
-      <c r="F94" s="30">
-        <v>100</v>
-      </c>
-      <c r="G94" s="32" t="s">
+      <c r="F94" s="18">
+        <v>100</v>
+      </c>
+      <c r="G94" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="32"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="30">
+      <c r="A95" s="18">
         <v>95</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B95" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C95" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="30">
+      <c r="D95" s="18">
         <v>35</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E95" s="18">
         <v>40</v>
       </c>
-      <c r="F95" s="30">
-        <v>100</v>
-      </c>
-      <c r="G95" s="32" t="s">
+      <c r="F95" s="18">
+        <v>100</v>
+      </c>
+      <c r="G95" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H95" s="32"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="30">
+      <c r="A96" s="18">
         <v>96</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="30">
+      <c r="D96" s="18">
         <v>30</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E96" s="18">
         <v>40</v>
       </c>
-      <c r="F96" s="30">
-        <v>100</v>
-      </c>
-      <c r="G96" s="32" t="s">
+      <c r="F96" s="18">
+        <v>100</v>
+      </c>
+      <c r="G96" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H96" s="32"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="30">
+      <c r="A97" s="18">
         <v>97</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C97" s="32" t="s">
+      <c r="C97" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D97" s="30">
+      <c r="D97" s="18">
         <v>20</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E97" s="18">
         <v>20</v>
       </c>
-      <c r="F97" s="30">
-        <v>100</v>
-      </c>
-      <c r="G97" s="32" t="s">
+      <c r="F97" s="18">
+        <v>100</v>
+      </c>
+      <c r="G97" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="32" t="s">
+      <c r="H97" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="30">
+      <c r="A98" s="18">
         <v>98</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="C98" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="30">
+      <c r="D98" s="18">
         <v>10</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E98" s="18">
         <v>80</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98" s="18">
         <v>75</v>
       </c>
-      <c r="G98" s="32" t="s">
+      <c r="G98" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H98" s="32"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="30">
+      <c r="A99" s="18">
         <v>99</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C99" s="32" t="s">
+      <c r="C99" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99" s="18">
         <v>20</v>
       </c>
-      <c r="E99" s="30">
+      <c r="E99" s="18">
         <v>0</v>
       </c>
-      <c r="F99" s="30">
-        <v>100</v>
-      </c>
-      <c r="G99" s="32" t="s">
+      <c r="F99" s="18">
+        <v>100</v>
+      </c>
+      <c r="G99" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H99" s="32" t="s">
+      <c r="H99" s="20" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="30">
-        <v>100</v>
-      </c>
-      <c r="B100" s="32" t="s">
+      <c r="A100" s="18">
+        <v>100</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C100" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="30">
+      <c r="D100" s="18">
         <v>20</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="18">
         <v>0</v>
       </c>
-      <c r="F100" s="30">
-        <v>100</v>
-      </c>
-      <c r="G100" s="32" t="s">
+      <c r="F100" s="18">
+        <v>100</v>
+      </c>
+      <c r="G100" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="32"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="30">
+      <c r="A101" s="18">
         <v>101</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="30">
+      <c r="D101" s="18">
         <v>15</v>
       </c>
-      <c r="E101" s="30">
+      <c r="E101" s="18">
         <v>0</v>
       </c>
-      <c r="F101" s="30">
-        <v>100</v>
-      </c>
-      <c r="G101" s="32" t="s">
+      <c r="F101" s="18">
+        <v>100</v>
+      </c>
+      <c r="G101" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H101" s="32" t="s">
+      <c r="H101" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="30">
+      <c r="A102" s="18">
         <v>102</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D102" s="18">
         <v>35</v>
       </c>
-      <c r="E102" s="30">
+      <c r="E102" s="18">
         <v>40</v>
       </c>
-      <c r="F102" s="30">
-        <v>100</v>
-      </c>
-      <c r="G102" s="32" t="s">
+      <c r="F102" s="18">
+        <v>100</v>
+      </c>
+      <c r="G102" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="32"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="30">
+      <c r="A103" s="18">
         <v>103</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="30">
+      <c r="D103" s="18">
         <v>40</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="18">
         <v>0</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="18">
         <v>85</v>
       </c>
-      <c r="G103" s="32" t="s">
+      <c r="G103" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H103" s="32" t="s">
+      <c r="H103" s="20" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="30">
+      <c r="A104" s="18">
         <v>104</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D104" s="18">
         <v>5</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="18">
         <v>130</v>
       </c>
-      <c r="F104" s="30">
-        <v>100</v>
-      </c>
-      <c r="G104" s="32" t="s">
+      <c r="F104" s="18">
+        <v>100</v>
+      </c>
+      <c r="G104" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="32" t="s">
+      <c r="H104" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="30">
+      <c r="A105" s="18">
         <v>105</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="30">
+      <c r="D105" s="18">
         <v>30</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E105" s="18">
         <v>0</v>
       </c>
-      <c r="F105" s="30">
-        <v>100</v>
-      </c>
-      <c r="G105" s="32" t="s">
+      <c r="F105" s="18">
+        <v>100</v>
+      </c>
+      <c r="G105" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="32" t="s">
+      <c r="H105" s="20" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="30">
+      <c r="A106" s="18">
         <v>106</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D106" s="30">
+      <c r="D106" s="18">
         <v>15</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E106" s="18">
         <v>0</v>
       </c>
-      <c r="F106" s="30">
+      <c r="F106" s="18">
         <v>55</v>
       </c>
-      <c r="G106" s="32" t="s">
+      <c r="G106" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H106" s="32" t="s">
+      <c r="H106" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="30">
+      <c r="A107" s="18">
         <v>107</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D107" s="30">
+      <c r="D107" s="18">
         <v>15</v>
       </c>
-      <c r="E107" s="30">
-        <v>100</v>
-      </c>
-      <c r="F107" s="30">
-        <v>100</v>
-      </c>
-      <c r="G107" s="32" t="s">
+      <c r="E107" s="18">
+        <v>100</v>
+      </c>
+      <c r="F107" s="18">
+        <v>100</v>
+      </c>
+      <c r="G107" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H107" s="32"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="30">
+      <c r="A108" s="18">
         <v>108</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C108" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="30">
+      <c r="D108" s="18">
         <v>20</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="18">
         <v>80</v>
       </c>
-      <c r="F108" s="30">
+      <c r="F108" s="18">
         <v>75</v>
       </c>
-      <c r="G108" s="32" t="s">
+      <c r="G108" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H108" s="32"/>
+      <c r="H108" s="20"/>
     </row>
     <row r="109" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="30">
+      <c r="A109" s="18">
         <v>109</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C109" s="32" t="s">
+      <c r="C109" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="30">
+      <c r="D109" s="18">
         <v>20</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E109" s="18">
         <v>70</v>
       </c>
-      <c r="F109" s="30">
-        <v>100</v>
-      </c>
-      <c r="G109" s="32" t="s">
+      <c r="F109" s="18">
+        <v>100</v>
+      </c>
+      <c r="G109" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H109" s="32"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="30">
+      <c r="A110" s="18">
         <v>110</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C110" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D110" s="30">
+      <c r="D110" s="18">
         <v>20</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E110" s="18">
         <v>0</v>
       </c>
-      <c r="F110" s="30">
-        <v>100</v>
-      </c>
-      <c r="G110" s="32" t="s">
+      <c r="F110" s="18">
+        <v>100</v>
+      </c>
+      <c r="G110" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H110" s="32" t="s">
+      <c r="H110" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="30">
+      <c r="A111" s="18">
         <v>111</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C111" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D111" s="30">
+      <c r="D111" s="18">
         <v>10</v>
       </c>
-      <c r="E111" s="30">
+      <c r="E111" s="18">
         <v>0</v>
       </c>
-      <c r="F111" s="30">
-        <v>100</v>
-      </c>
-      <c r="G111" s="32" t="s">
+      <c r="F111" s="18">
+        <v>100</v>
+      </c>
+      <c r="G111" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H111" s="32" t="s">
+      <c r="H111" s="20" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="30">
+      <c r="A112" s="18">
         <v>112</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C112" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D112" s="30">
+      <c r="D112" s="18">
         <v>20</v>
       </c>
-      <c r="E112" s="30">
+      <c r="E112" s="18">
         <v>0</v>
       </c>
-      <c r="F112" s="30">
+      <c r="F112" s="18">
         <v>90</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G112" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="32">
+      <c r="H112" s="20">
         <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="30">
+      <c r="A113" s="18">
         <v>113</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="30">
+      <c r="D113" s="18">
         <v>15</v>
       </c>
-      <c r="E113" s="30">
+      <c r="E113" s="18">
         <v>20</v>
       </c>
-      <c r="F113" s="30">
-        <v>100</v>
-      </c>
-      <c r="G113" s="32" t="s">
+      <c r="F113" s="18">
+        <v>100</v>
+      </c>
+      <c r="G113" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H113" s="32" t="s">
+      <c r="H113" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="30">
+      <c r="A114" s="18">
         <v>114</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C114" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D114" s="30">
+      <c r="D114" s="18">
         <v>40</v>
       </c>
-      <c r="E114" s="30">
+      <c r="E114" s="18">
         <v>0</v>
       </c>
-      <c r="F114" s="30">
-        <v>100</v>
-      </c>
-      <c r="G114" s="32" t="s">
+      <c r="F114" s="18">
+        <v>100</v>
+      </c>
+      <c r="G114" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H114" s="32"/>
+      <c r="H114" s="20"/>
     </row>
     <row r="115" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="30">
+      <c r="A115" s="18">
         <v>115</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C115" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D115" s="30">
+      <c r="D115" s="18">
         <v>20</v>
       </c>
-      <c r="E115" s="30">
+      <c r="E115" s="18">
         <v>65</v>
       </c>
-      <c r="F115" s="30">
-        <v>100</v>
-      </c>
-      <c r="G115" s="32" t="s">
+      <c r="F115" s="18">
+        <v>100</v>
+      </c>
+      <c r="G115" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H115" s="32" t="s">
+      <c r="H115" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="30">
+      <c r="A116" s="18">
         <v>116</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="C116" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D116" s="30">
+      <c r="D116" s="18">
         <v>15</v>
       </c>
-      <c r="E116" s="30">
+      <c r="E116" s="18">
         <v>80</v>
       </c>
-      <c r="F116" s="30">
-        <v>100</v>
-      </c>
-      <c r="G116" s="32" t="s">
+      <c r="F116" s="18">
+        <v>100</v>
+      </c>
+      <c r="G116" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H116" s="32"/>
+      <c r="H116" s="20"/>
     </row>
     <row r="117" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="30">
+      <c r="A117" s="18">
         <v>117</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="C117" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D117" s="30">
+      <c r="D117" s="18">
         <v>10</v>
       </c>
-      <c r="E117" s="30">
+      <c r="E117" s="18">
         <v>50</v>
       </c>
-      <c r="F117" s="30">
-        <v>100</v>
-      </c>
-      <c r="G117" s="32" t="s">
+      <c r="F117" s="18">
+        <v>100</v>
+      </c>
+      <c r="G117" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H117" s="32" t="s">
+      <c r="H117" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="30">
+      <c r="A118" s="18">
         <v>118</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C118" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D118" s="30">
+      <c r="D118" s="18">
         <v>10</v>
       </c>
-      <c r="E118" s="30">
+      <c r="E118" s="18">
         <v>0</v>
       </c>
-      <c r="F118" s="30">
-        <v>100</v>
-      </c>
-      <c r="G118" s="32" t="s">
+      <c r="F118" s="18">
+        <v>100</v>
+      </c>
+      <c r="G118" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H118" s="32"/>
+      <c r="H118" s="20"/>
     </row>
     <row r="119" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="30">
+      <c r="A119" s="18">
         <v>119</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B119" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C119" s="32" t="s">
+      <c r="C119" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D119" s="30">
+      <c r="D119" s="18">
         <v>10</v>
       </c>
-      <c r="E119" s="30">
+      <c r="E119" s="18">
         <v>0</v>
       </c>
-      <c r="F119" s="30">
+      <c r="F119" s="18">
         <v>90</v>
       </c>
-      <c r="G119" s="32" t="s">
+      <c r="G119" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H119" s="32"/>
+      <c r="H119" s="20"/>
     </row>
     <row r="120" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="30">
+      <c r="A120" s="18">
         <v>120</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B120" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C120" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D120" s="30">
+      <c r="D120" s="18">
         <v>20</v>
       </c>
-      <c r="E120" s="30">
+      <c r="E120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="30">
+      <c r="F120" s="18">
         <v>55</v>
       </c>
-      <c r="G120" s="32" t="s">
+      <c r="G120" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H120" s="32" t="s">
+      <c r="H120" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="30">
+      <c r="A121" s="18">
         <v>121</v>
       </c>
-      <c r="B121" s="32" t="s">
+      <c r="B121" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C121" s="32" t="s">
+      <c r="C121" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D121" s="30">
+      <c r="D121" s="18">
         <v>20</v>
       </c>
-      <c r="E121" s="30">
+      <c r="E121" s="18">
         <v>60</v>
       </c>
-      <c r="F121" s="30">
-        <v>100</v>
-      </c>
-      <c r="G121" s="32" t="s">
+      <c r="F121" s="18">
+        <v>100</v>
+      </c>
+      <c r="G121" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="32"/>
+      <c r="H121" s="20"/>
     </row>
     <row r="122" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="30">
+      <c r="A122" s="18">
         <v>122</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="C122" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="30">
+      <c r="D122" s="18">
         <v>30</v>
       </c>
-      <c r="E122" s="30">
+      <c r="E122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="30">
-        <v>100</v>
-      </c>
-      <c r="G122" s="32" t="s">
+      <c r="F122" s="18">
+        <v>100</v>
+      </c>
+      <c r="G122" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="32" t="s">
+      <c r="H122" s="20" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="30">
+      <c r="A123" s="18">
         <v>123</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="C123" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D123" s="30">
+      <c r="D123" s="18">
         <v>35</v>
       </c>
-      <c r="E123" s="30">
+      <c r="E123" s="18">
         <v>35</v>
       </c>
-      <c r="F123" s="30">
+      <c r="F123" s="18">
         <v>95</v>
       </c>
-      <c r="G123" s="32" t="s">
+      <c r="G123" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H123" s="32"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="30">
+      <c r="A124" s="18">
         <v>124</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="B124" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="C124" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D124" s="30">
+      <c r="D124" s="18">
         <v>30</v>
       </c>
-      <c r="E124" s="30">
+      <c r="E124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="30">
-        <v>100</v>
-      </c>
-      <c r="G124" s="32" t="s">
+      <c r="F124" s="18">
+        <v>100</v>
+      </c>
+      <c r="G124" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H124" s="32" t="s">
+      <c r="H124" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="30">
+      <c r="A125" s="18">
         <v>125</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B125" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D125" s="30">
+      <c r="D125" s="18">
         <v>20</v>
       </c>
-      <c r="E125" s="30">
+      <c r="E125" s="18">
         <v>90</v>
       </c>
-      <c r="F125" s="30">
+      <c r="F125" s="18">
         <v>85</v>
       </c>
-      <c r="G125" s="32" t="s">
+      <c r="G125" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="32" t="s">
+      <c r="H125" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="30">
+      <c r="A126" s="18">
         <v>126</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="C126" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D126" s="30">
+      <c r="D126" s="18">
         <v>20</v>
       </c>
-      <c r="E126" s="30">
+      <c r="E126" s="18">
         <v>90</v>
       </c>
-      <c r="F126" s="30">
-        <v>100</v>
-      </c>
-      <c r="G126" s="32" t="s">
+      <c r="F126" s="18">
+        <v>100</v>
+      </c>
+      <c r="G126" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="32" t="s">
+      <c r="H126" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="30">
+      <c r="A127" s="18">
         <v>127</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C127" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D127" s="30">
+      <c r="D127" s="18">
         <v>10</v>
       </c>
-      <c r="E127" s="30">
+      <c r="E127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="30">
-        <v>100</v>
-      </c>
-      <c r="G127" s="32" t="s">
+      <c r="F127" s="18">
+        <v>100</v>
+      </c>
+      <c r="G127" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H127" s="32"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="30">
+      <c r="A128" s="18">
         <v>128</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D128" s="30">
+      <c r="D128" s="18">
         <v>10</v>
       </c>
-      <c r="E128" s="30">
+      <c r="E128" s="18">
         <v>80</v>
       </c>
-      <c r="F128" s="30">
-        <v>100</v>
-      </c>
-      <c r="G128" s="32" t="s">
+      <c r="F128" s="18">
+        <v>100</v>
+      </c>
+      <c r="G128" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H128" s="32"/>
+      <c r="H128" s="20"/>
     </row>
     <row r="129" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="30">
+      <c r="A129" s="18">
         <v>129</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="C129" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D129" s="30">
+      <c r="D129" s="18">
         <v>30</v>
       </c>
-      <c r="E129" s="30">
+      <c r="E129" s="18">
         <v>55</v>
       </c>
-      <c r="F129" s="30">
-        <v>100</v>
-      </c>
-      <c r="G129" s="32" t="s">
+      <c r="F129" s="18">
+        <v>100</v>
+      </c>
+      <c r="G129" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H129" s="32"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="30">
+      <c r="A130" s="18">
         <v>130</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C130" s="32" t="s">
+      <c r="C130" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D130" s="30">
+      <c r="D130" s="18">
         <v>20</v>
       </c>
-      <c r="E130" s="30">
+      <c r="E130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="30">
+      <c r="F130" s="18">
         <v>85</v>
       </c>
-      <c r="G130" s="32" t="s">
+      <c r="G130" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H130" s="32"/>
+      <c r="H130" s="20"/>
     </row>
     <row r="131" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="30">
+      <c r="A131" s="18">
         <v>131</v>
       </c>
-      <c r="B131" s="32" t="s">
+      <c r="B131" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="C131" s="32" t="s">
+      <c r="C131" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D131" s="30">
+      <c r="D131" s="18">
         <v>20</v>
       </c>
-      <c r="E131" s="30">
+      <c r="E131" s="18">
         <v>15</v>
       </c>
-      <c r="F131" s="30">
+      <c r="F131" s="18">
         <v>85</v>
       </c>
-      <c r="G131" s="32" t="s">
+      <c r="G131" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H131" s="32" t="s">
+      <c r="H131" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="30">
+      <c r="A132" s="18">
         <v>132</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C132" s="32" t="s">
+      <c r="C132" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="30">
+      <c r="D132" s="18">
         <v>30</v>
       </c>
-      <c r="E132" s="30">
+      <c r="E132" s="18">
         <v>40</v>
       </c>
-      <c r="F132" s="30">
-        <v>100</v>
-      </c>
-      <c r="G132" s="32" t="s">
+      <c r="F132" s="18">
+        <v>100</v>
+      </c>
+      <c r="G132" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="32" t="s">
+      <c r="H132" s="20" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="30">
+      <c r="A133" s="18">
         <v>133</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="B133" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C133" s="32" t="s">
+      <c r="C133" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="30">
+      <c r="D133" s="18">
         <v>40</v>
       </c>
-      <c r="E133" s="30">
+      <c r="E133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="30">
-        <v>100</v>
-      </c>
-      <c r="G133" s="32" t="s">
+      <c r="F133" s="18">
+        <v>100</v>
+      </c>
+      <c r="G133" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H133" s="32" t="s">
+      <c r="H133" s="20" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="30">
+      <c r="A134" s="18">
         <v>134</v>
       </c>
-      <c r="B134" s="32" t="s">
+      <c r="B134" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C134" s="32" t="s">
+      <c r="C134" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D134" s="30">
+      <c r="D134" s="18">
         <v>40</v>
       </c>
-      <c r="E134" s="30">
+      <c r="E134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="30">
+      <c r="F134" s="18">
         <v>55</v>
       </c>
-      <c r="G134" s="32" t="s">
+      <c r="G134" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H134" s="32" t="s">
+      <c r="H134" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="30">
+      <c r="A135" s="18">
         <v>135</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="B135" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="C135" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D135" s="30">
+      <c r="D135" s="18">
         <v>35</v>
       </c>
-      <c r="E135" s="30">
+      <c r="E135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="30">
+      <c r="F135" s="18">
         <v>75</v>
       </c>
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H135" s="32" t="s">
+      <c r="H135" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="30">
+      <c r="A136" s="18">
         <v>136</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="B136" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="C136" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D136" s="30">
+      <c r="D136" s="18">
         <v>35</v>
       </c>
-      <c r="E136" s="30">
+      <c r="E136" s="18">
         <v>15</v>
       </c>
-      <c r="F136" s="30">
-        <v>100</v>
-      </c>
-      <c r="G136" s="32" t="s">
+      <c r="F136" s="18">
+        <v>100</v>
+      </c>
+      <c r="G136" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H136" s="32" t="s">
+      <c r="H136" s="20" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="30">
+      <c r="A137" s="18">
         <v>137</v>
       </c>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="C137" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D137" s="30">
+      <c r="D137" s="18">
         <v>20</v>
       </c>
-      <c r="E137" s="30">
+      <c r="E137" s="18">
         <v>65</v>
       </c>
-      <c r="F137" s="30">
-        <v>100</v>
-      </c>
-      <c r="G137" s="32" t="s">
+      <c r="F137" s="18">
+        <v>100</v>
+      </c>
+      <c r="G137" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H137" s="32" t="s">
+      <c r="H137" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="30">
+      <c r="A138" s="18">
         <v>138</v>
       </c>
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="C138" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D138" s="30">
+      <c r="D138" s="18">
         <v>20</v>
       </c>
-      <c r="E138" s="30">
+      <c r="E138" s="18">
         <v>20</v>
       </c>
-      <c r="F138" s="30">
+      <c r="F138" s="18">
         <v>70</v>
       </c>
-      <c r="G138" s="32" t="s">
+      <c r="G138" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H138" s="32" t="s">
+      <c r="H138" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="30">
+      <c r="A139" s="18">
         <v>139</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C139" s="32" t="s">
+      <c r="C139" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D139" s="30">
+      <c r="D139" s="18">
         <v>10</v>
       </c>
-      <c r="E139" s="30">
+      <c r="E139" s="18">
         <v>0</v>
       </c>
-      <c r="F139" s="30">
+      <c r="F139" s="18">
         <v>85</v>
       </c>
-      <c r="G139" s="32" t="s">
+      <c r="G139" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H139" s="32" t="s">
+      <c r="H139" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="30">
+      <c r="A140" s="18">
         <v>140</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="B140" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="C140" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D140" s="30">
+      <c r="D140" s="18">
         <v>30</v>
       </c>
-      <c r="E140" s="30">
+      <c r="E140" s="18">
         <v>0</v>
       </c>
-      <c r="F140" s="30">
-        <v>100</v>
-      </c>
-      <c r="G140" s="32" t="s">
+      <c r="F140" s="18">
+        <v>100</v>
+      </c>
+      <c r="G140" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H140" s="32" t="s">
+      <c r="H140" s="20" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="30">
+      <c r="A141" s="18">
         <v>141</v>
       </c>
-      <c r="B141" s="32" t="s">
+      <c r="B141" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C141" s="32" t="s">
+      <c r="C141" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D141" s="30">
+      <c r="D141" s="18">
         <v>20</v>
       </c>
-      <c r="E141" s="30">
+      <c r="E141" s="18">
         <v>0</v>
       </c>
-      <c r="F141" s="30">
-        <v>100</v>
-      </c>
-      <c r="G141" s="32" t="s">
+      <c r="F141" s="18">
+        <v>100</v>
+      </c>
+      <c r="G141" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H141" s="32" t="s">
+      <c r="H141" s="20" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="30">
+      <c r="A142" s="18">
         <v>142</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B142" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="C142" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D142" s="30">
+      <c r="D142" s="18">
         <v>30</v>
       </c>
-      <c r="E142" s="30">
+      <c r="E142" s="18">
         <v>0</v>
       </c>
-      <c r="F142" s="30">
-        <v>100</v>
-      </c>
-      <c r="G142" s="32" t="s">
+      <c r="F142" s="18">
+        <v>100</v>
+      </c>
+      <c r="G142" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H142" s="32" t="s">
+      <c r="H142" s="20" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="30">
+      <c r="A143" s="18">
         <v>143</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C143" s="32" t="s">
+      <c r="C143" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D143" s="30">
+      <c r="D143" s="18">
         <v>25</v>
       </c>
-      <c r="E143" s="30">
+      <c r="E143" s="18">
         <v>50</v>
       </c>
-      <c r="F143" s="30">
-        <v>100</v>
-      </c>
-      <c r="G143" s="32" t="s">
+      <c r="F143" s="18">
+        <v>100</v>
+      </c>
+      <c r="G143" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H143" s="32" t="s">
+      <c r="H143" s="20" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="30">
+      <c r="A144" s="18">
         <v>144</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C144" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D144" s="30">
+      <c r="D144" s="18">
         <v>15</v>
       </c>
-      <c r="E144" s="30">
-        <v>100</v>
-      </c>
-      <c r="F144" s="30">
-        <v>100</v>
-      </c>
-      <c r="G144" s="32" t="s">
+      <c r="E144" s="18">
+        <v>100</v>
+      </c>
+      <c r="F144" s="18">
+        <v>100</v>
+      </c>
+      <c r="G144" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H144" s="32"/>
+      <c r="H144" s="20"/>
     </row>
     <row r="145" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="30">
+      <c r="A145" s="18">
         <v>145</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D145" s="30">
+      <c r="D145" s="18">
         <v>20</v>
       </c>
-      <c r="E145" s="30">
+      <c r="E145" s="18">
         <v>0</v>
       </c>
-      <c r="F145" s="30">
+      <c r="F145" s="18">
         <v>60</v>
       </c>
-      <c r="G145" s="32" t="s">
+      <c r="G145" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H145" s="32" t="s">
+      <c r="H145" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="30">
+      <c r="A146" s="18">
         <v>146</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C146" s="32" t="s">
+      <c r="C146" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D146" s="30">
+      <c r="D146" s="18">
         <v>15</v>
       </c>
-      <c r="E146" s="30">
+      <c r="E146" s="18">
         <v>0</v>
       </c>
-      <c r="F146" s="30">
+      <c r="F146" s="18">
         <v>80</v>
       </c>
-      <c r="G146" s="32" t="s">
+      <c r="G146" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H146" s="32" t="s">
+      <c r="H146" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="30">
+      <c r="A147" s="18">
         <v>147</v>
       </c>
-      <c r="B147" s="32" t="s">
+      <c r="B147" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C147" s="32" t="s">
+      <c r="C147" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D147" s="30">
+      <c r="D147" s="18">
         <v>30</v>
       </c>
-      <c r="E147" s="30">
+      <c r="E147" s="18">
         <v>0</v>
       </c>
-      <c r="F147" s="30">
-        <v>100</v>
-      </c>
-      <c r="G147" s="32" t="s">
+      <c r="F147" s="18">
+        <v>100</v>
+      </c>
+      <c r="G147" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H147" s="32" t="s">
+      <c r="H147" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="30">
+      <c r="A148" s="18">
         <v>148</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D148" s="30">
+      <c r="D148" s="18">
         <v>40</v>
       </c>
-      <c r="E148" s="30">
+      <c r="E148" s="18">
         <v>0</v>
       </c>
-      <c r="F148" s="30">
-        <v>100</v>
-      </c>
-      <c r="G148" s="32" t="s">
+      <c r="F148" s="18">
+        <v>100</v>
+      </c>
+      <c r="G148" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H148" s="32" t="s">
+      <c r="H148" s="20" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="30">
+      <c r="A149" s="18">
         <v>149</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="C149" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D149" s="30">
+      <c r="D149" s="18">
         <v>20</v>
       </c>
-      <c r="E149" s="30">
+      <c r="E149" s="18">
         <v>65</v>
       </c>
-      <c r="F149" s="30">
-        <v>100</v>
-      </c>
-      <c r="G149" s="32" t="s">
+      <c r="F149" s="18">
+        <v>100</v>
+      </c>
+      <c r="G149" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H149" s="32" t="s">
+      <c r="H149" s="20" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="30">
+      <c r="A150" s="18">
         <v>150</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D150" s="30">
+      <c r="D150" s="18">
         <v>10</v>
       </c>
-      <c r="E150" s="30">
+      <c r="E150" s="18">
         <v>90</v>
       </c>
-      <c r="F150" s="30">
-        <v>100</v>
-      </c>
-      <c r="G150" s="32" t="s">
+      <c r="F150" s="18">
+        <v>100</v>
+      </c>
+      <c r="G150" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="32" t="s">
+      <c r="H150" s="20" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="30">
+      <c r="A151" s="18">
         <v>151</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="C151" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D151" s="30">
+      <c r="D151" s="18">
         <v>15</v>
       </c>
-      <c r="E151" s="30">
+      <c r="E151" s="18">
         <v>0</v>
       </c>
-      <c r="F151" s="30">
+      <c r="F151" s="18">
         <v>80</v>
       </c>
-      <c r="G151" s="32" t="s">
+      <c r="G151" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H151" s="32" t="s">
+      <c r="H151" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="30">
+      <c r="A152" s="18">
         <v>152</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B152" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C152" s="32" t="s">
+      <c r="C152" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D152" s="30">
+      <c r="D152" s="18">
         <v>20</v>
       </c>
-      <c r="E152" s="30">
+      <c r="E152" s="18">
         <v>0</v>
       </c>
-      <c r="F152" s="30">
-        <v>100</v>
-      </c>
-      <c r="G152" s="32" t="s">
+      <c r="F152" s="18">
+        <v>100</v>
+      </c>
+      <c r="G152" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H152" s="32" t="s">
+      <c r="H152" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="30">
+      <c r="A153" s="18">
         <v>153</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B153" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C153" s="32" t="s">
+      <c r="C153" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D153" s="30">
+      <c r="D153" s="18">
         <v>10</v>
       </c>
-      <c r="E153" s="30">
+      <c r="E153" s="18">
         <v>0</v>
       </c>
-      <c r="F153" s="30">
-        <v>100</v>
-      </c>
-      <c r="G153" s="32" t="s">
+      <c r="F153" s="18">
+        <v>100</v>
+      </c>
+      <c r="G153" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H153" s="32" t="s">
+      <c r="H153" s="20" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="30">
+      <c r="A154" s="18">
         <v>154</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C154" s="32" t="s">
+      <c r="C154" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D154" s="30">
+      <c r="D154" s="18">
         <v>20</v>
       </c>
-      <c r="E154" s="30">
+      <c r="E154" s="18">
         <v>0</v>
       </c>
-      <c r="F154" s="30">
-        <v>100</v>
-      </c>
-      <c r="G154" s="32" t="s">
+      <c r="F154" s="18">
+        <v>100</v>
+      </c>
+      <c r="G154" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H154" s="32"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="30">
+      <c r="A155" s="18">
         <v>155</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C155" s="32" t="s">
+      <c r="C155" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D155" s="30">
+      <c r="D155" s="18">
         <v>10</v>
       </c>
-      <c r="E155" s="30">
+      <c r="E155" s="18">
         <v>75</v>
       </c>
-      <c r="F155" s="30">
+      <c r="F155" s="18">
         <v>90</v>
       </c>
-      <c r="G155" s="32" t="s">
+      <c r="G155" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H155" s="32"/>
+      <c r="H155" s="20"/>
     </row>
     <row r="156" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="30">
+      <c r="A156" s="18">
         <v>156</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B156" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C156" s="32" t="s">
+      <c r="C156" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D156" s="30">
+      <c r="D156" s="18">
         <v>15</v>
       </c>
-      <c r="E156" s="30">
+      <c r="E156" s="18">
         <v>50</v>
       </c>
-      <c r="F156" s="30">
+      <c r="F156" s="18">
         <v>65</v>
       </c>
-      <c r="G156" s="32" t="s">
+      <c r="G156" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H156" s="32"/>
+      <c r="H156" s="20"/>
     </row>
     <row r="157" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="30">
+      <c r="A157" s="18">
         <v>157</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="B157" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C157" s="32" t="s">
+      <c r="C157" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="30">
+      <c r="D157" s="18">
         <v>30</v>
       </c>
-      <c r="E157" s="30">
+      <c r="E157" s="18">
         <v>20</v>
       </c>
-      <c r="F157" s="30">
-        <v>100</v>
-      </c>
-      <c r="G157" s="32" t="s">
+      <c r="F157" s="18">
+        <v>100</v>
+      </c>
+      <c r="G157" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H157" s="32" t="s">
+      <c r="H157" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="30">
+      <c r="A158" s="18">
         <v>158</v>
       </c>
-      <c r="B158" s="32" t="s">
+      <c r="B158" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="C158" s="32" t="s">
+      <c r="C158" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D158" s="30">
+      <c r="D158" s="18">
         <v>20</v>
       </c>
-      <c r="E158" s="30">
+      <c r="E158" s="18">
         <v>65</v>
       </c>
-      <c r="F158" s="30">
-        <v>100</v>
-      </c>
-      <c r="G158" s="32" t="s">
+      <c r="F158" s="18">
+        <v>100</v>
+      </c>
+      <c r="G158" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H158" s="32" t="s">
+      <c r="H158" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="30">
+      <c r="A159" s="18">
         <v>159</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B159" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C159" s="32" t="s">
+      <c r="C159" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D159" s="30">
+      <c r="D159" s="18">
         <v>10</v>
       </c>
-      <c r="E159" s="30">
+      <c r="E159" s="18">
         <v>35</v>
       </c>
-      <c r="F159" s="30">
+      <c r="F159" s="18">
         <v>75</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G159" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H159" s="32" t="s">
+      <c r="H159" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="30">
+      <c r="A160" s="18">
         <v>160</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B160" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C160" s="32" t="s">
+      <c r="C160" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D160" s="30">
+      <c r="D160" s="18">
         <v>10</v>
       </c>
-      <c r="E160" s="30">
+      <c r="E160" s="18">
         <v>90</v>
       </c>
-      <c r="F160" s="30">
+      <c r="F160" s="18">
         <v>85</v>
       </c>
-      <c r="G160" s="32" t="s">
+      <c r="G160" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H160" s="32"/>
+      <c r="H160" s="20"/>
     </row>
     <row r="161" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="30">
+      <c r="A161" s="18">
         <v>161</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="C161" s="32" t="s">
+      <c r="C161" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D161" s="30">
+      <c r="D161" s="18">
         <v>5</v>
       </c>
-      <c r="E161" s="30">
+      <c r="E161" s="18">
         <v>120</v>
       </c>
-      <c r="F161" s="30">
+      <c r="F161" s="18">
         <v>80</v>
       </c>
-      <c r="G161" s="32" t="s">
+      <c r="G161" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H161" s="32"/>
+      <c r="H161" s="20"/>
     </row>
     <row r="162" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="30">
+      <c r="A162" s="18">
         <v>162</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C162" s="32" t="s">
+      <c r="C162" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D162" s="30">
+      <c r="D162" s="18">
         <v>15</v>
       </c>
-      <c r="E162" s="30">
+      <c r="E162" s="18">
         <v>95</v>
       </c>
-      <c r="F162" s="30">
-        <v>100</v>
-      </c>
-      <c r="G162" s="32" t="s">
+      <c r="F162" s="18">
+        <v>100</v>
+      </c>
+      <c r="G162" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H162" s="32"/>
+      <c r="H162" s="20"/>
     </row>
     <row r="163" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="30">
+      <c r="A163" s="18">
         <v>163</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C163" s="32" t="s">
+      <c r="C163" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D163" s="30">
+      <c r="D163" s="18">
         <v>25</v>
       </c>
-      <c r="E163" s="30">
+      <c r="E163" s="18">
         <v>40</v>
       </c>
-      <c r="F163" s="30">
-        <v>100</v>
-      </c>
-      <c r="G163" s="32" t="s">
+      <c r="F163" s="18">
+        <v>100</v>
+      </c>
+      <c r="G163" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H163" s="32"/>
+      <c r="H163" s="20"/>
     </row>
     <row r="164" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="30">
+      <c r="A164" s="18">
         <v>164</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C164" s="32" t="s">
+      <c r="C164" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D164" s="30">
+      <c r="D164" s="18">
         <v>15</v>
       </c>
-      <c r="E164" s="30">
+      <c r="E164" s="18">
         <v>80</v>
       </c>
-      <c r="F164" s="30">
-        <v>100</v>
-      </c>
-      <c r="G164" s="32" t="s">
+      <c r="F164" s="18">
+        <v>100</v>
+      </c>
+      <c r="G164" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H164" s="32"/>
+      <c r="H164" s="20"/>
     </row>
     <row r="165" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="30">
+      <c r="A165" s="18">
         <v>165</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="C165" s="32" t="s">
+      <c r="C165" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D165" s="30">
+      <c r="D165" s="18">
         <v>40</v>
       </c>
-      <c r="E165" s="30">
+      <c r="E165" s="18">
         <v>0</v>
       </c>
-      <c r="F165" s="30">
-        <v>100</v>
-      </c>
-      <c r="G165" s="32" t="s">
+      <c r="F165" s="18">
+        <v>100</v>
+      </c>
+      <c r="G165" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H165" s="32" t="s">
+      <c r="H165" s="20" t="s">
         <v>164</v>
       </c>
     </row>
@@ -10265,6 +10267,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan3"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10369,6 +10372,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan4"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10506,6 +10510,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan5"/>
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10518,31 +10523,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="9" t="s">
         <v>87</v>
       </c>
@@ -10590,7 +10595,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>233</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -10643,7 +10648,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
@@ -10694,7 +10699,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="13" t="s">
         <v>59</v>
       </c>
@@ -10745,7 +10750,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
@@ -10796,7 +10801,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="13" t="s">
         <v>120</v>
       </c>
@@ -10847,7 +10852,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="13" t="s">
         <v>224</v>
       </c>
@@ -10898,7 +10903,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -10949,7 +10954,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="13" t="s">
         <v>89</v>
       </c>
@@ -11000,7 +11005,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="13" t="s">
         <v>50</v>
       </c>
@@ -11051,7 +11056,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="13" t="s">
         <v>63</v>
       </c>
@@ -11102,7 +11107,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="13" t="s">
         <v>39</v>
       </c>
@@ -11153,7 +11158,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
@@ -11204,7 +11209,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="13" t="s">
         <v>208</v>
       </c>
@@ -11255,7 +11260,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="13" t="s">
         <v>132</v>
       </c>
@@ -11306,7 +11311,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
@@ -11368,6 +11373,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan6"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -11381,16 +11387,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -11457,16 +11463,16 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="33"/>
     </row>
     <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">

--- a/TrabalhoPPIOO/Tabelas.xlsx
+++ b/TrabalhoPPIOO/Tabelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="420">
   <si>
     <t>Classe</t>
   </si>
@@ -786,9 +786,6 @@
   </si>
   <si>
     <t>max_hp, 0.5</t>
-  </si>
-  <si>
-    <t>1×</t>
   </si>
   <si>
     <t>Roar</t>
@@ -4178,7 +4175,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>87</v>
@@ -4207,7 +4204,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>87</v>
@@ -4236,7 +4233,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>63</v>
@@ -4263,7 +4260,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>63</v>
@@ -4292,7 +4289,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>40</v>
@@ -4319,7 +4316,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>40</v>
@@ -4346,7 +4343,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>63</v>
@@ -4373,7 +4370,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>63</v>
@@ -4402,7 +4399,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>89</v>
@@ -4431,7 +4428,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>89</v>
@@ -4460,7 +4457,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>89</v>
@@ -4489,7 +4486,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>224</v>
@@ -4518,7 +4515,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>208</v>
@@ -4545,7 +4542,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>208</v>
@@ -4572,7 +4569,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>63</v>
@@ -4599,7 +4596,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>63</v>
@@ -4626,7 +4623,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>29</v>
@@ -4653,7 +4650,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>29</v>
@@ -4680,7 +4677,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>39</v>
@@ -4709,7 +4706,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>39</v>
@@ -4738,7 +4735,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>120</v>
@@ -4765,7 +4762,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>120</v>
@@ -4792,7 +4789,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>47</v>
@@ -4819,7 +4816,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>47</v>
@@ -4846,7 +4843,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>87</v>
@@ -4873,7 +4870,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>40</v>
@@ -4900,7 +4897,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>40</v>
@@ -4927,7 +4924,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>120</v>
@@ -4956,7 +4953,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>120</v>
@@ -4985,7 +4982,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>87</v>
@@ -5012,7 +5009,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>39</v>
@@ -5039,7 +5036,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>87</v>
@@ -5066,7 +5063,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>63</v>
@@ -5093,7 +5090,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>63</v>
@@ -5120,7 +5117,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>63</v>
@@ -5147,7 +5144,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>63</v>
@@ -5174,7 +5171,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>63</v>
@@ -5201,7 +5198,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>63</v>
@@ -5230,7 +5227,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>208</v>
@@ -5257,7 +5254,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>6</v>
@@ -5286,7 +5283,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>132</v>
@@ -5315,7 +5312,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>29</v>
@@ -5342,7 +5339,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>50</v>
@@ -5369,7 +5366,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>6</v>
@@ -5396,7 +5393,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>87</v>
@@ -5423,7 +5420,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>63</v>
@@ -5450,7 +5447,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>63</v>
@@ -5479,7 +5476,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>63</v>
@@ -5508,7 +5505,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>87</v>
@@ -5535,7 +5532,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>87</v>
@@ -5562,7 +5559,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>63</v>
@@ -5589,7 +5586,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>29</v>
@@ -5616,7 +5613,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>50</v>
@@ -5643,7 +5640,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>87</v>
@@ -5670,7 +5667,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>224</v>
@@ -5699,7 +5696,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>224</v>
@@ -5728,7 +5725,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>224</v>
@@ -5757,7 +5754,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>224</v>
@@ -5786,7 +5783,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>224</v>
@@ -5815,7 +5812,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>87</v>
@@ -5842,7 +5839,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>132</v>
@@ -5871,7 +5868,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>29</v>
@@ -5900,7 +5897,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>50</v>
@@ -5929,7 +5926,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>25</v>
@@ -5956,7 +5953,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>25</v>
@@ -5983,7 +5980,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>25</v>
@@ -6012,7 +6009,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>208</v>
@@ -6039,7 +6036,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>208</v>
@@ -6072,7 +6069,7 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
@@ -8596,7 +8593,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>87</v>
@@ -8620,7 +8617,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>87</v>
@@ -8646,7 +8643,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>87</v>
@@ -8670,7 +8667,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>87</v>
@@ -8688,7 +8685,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8696,7 +8693,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>87</v>
@@ -8722,7 +8719,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C105" s="20" t="s">
         <v>87</v>
@@ -8740,7 +8737,7 @@
         <v>9</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8748,7 +8745,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>87</v>
@@ -8774,7 +8771,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>87</v>
@@ -8798,7 +8795,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>87</v>
@@ -8822,7 +8819,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>87</v>
@@ -8846,7 +8843,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>87</v>
@@ -8872,7 +8869,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>87</v>
@@ -8898,7 +8895,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>87</v>
@@ -8924,7 +8921,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>87</v>
@@ -8950,7 +8947,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>87</v>
@@ -8974,7 +8971,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>87</v>
@@ -9000,7 +8997,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>87</v>
@@ -9024,7 +9021,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>87</v>
@@ -9050,7 +9047,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>87</v>
@@ -9074,7 +9071,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>87</v>
@@ -9098,7 +9095,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>87</v>
@@ -9124,7 +9121,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>87</v>
@@ -9148,7 +9145,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>87</v>
@@ -9166,7 +9163,7 @@
         <v>9</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9174,7 +9171,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>87</v>
@@ -9198,7 +9195,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>87</v>
@@ -9224,7 +9221,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>87</v>
@@ -9250,7 +9247,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>87</v>
@@ -9276,7 +9273,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>87</v>
@@ -9300,7 +9297,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>87</v>
@@ -9324,7 +9321,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>87</v>
@@ -9348,7 +9345,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>87</v>
@@ -9372,7 +9369,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>87</v>
@@ -9398,7 +9395,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>40</v>
@@ -9416,7 +9413,7 @@
         <v>9</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9424,7 +9421,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>40</v>
@@ -9442,7 +9439,7 @@
         <v>9</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9450,7 +9447,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>40</v>
@@ -9476,7 +9473,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>40</v>
@@ -9502,7 +9499,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>40</v>
@@ -9520,7 +9517,7 @@
         <v>16</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9528,7 +9525,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>40</v>
@@ -9546,7 +9543,7 @@
         <v>16</v>
       </c>
       <c r="H137" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9554,7 +9551,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>40</v>
@@ -9572,7 +9569,7 @@
         <v>16</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9580,7 +9577,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>40</v>
@@ -9606,7 +9603,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>208</v>
@@ -9624,7 +9621,7 @@
         <v>9</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9632,7 +9629,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>208</v>
@@ -9650,7 +9647,7 @@
         <v>9</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9658,7 +9655,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C142" s="20" t="s">
         <v>208</v>
@@ -9676,7 +9673,7 @@
         <v>9</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9684,7 +9681,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>208</v>
@@ -9702,7 +9699,7 @@
         <v>16</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9710,7 +9707,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>208</v>
@@ -9734,7 +9731,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>208</v>
@@ -9760,7 +9757,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>208</v>
@@ -9786,7 +9783,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>208</v>
@@ -9812,7 +9809,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>208</v>
@@ -9830,7 +9827,7 @@
         <v>9</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9838,7 +9835,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>208</v>
@@ -9856,7 +9853,7 @@
         <v>16</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9882,7 +9879,7 @@
         <v>9</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9890,7 +9887,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>208</v>
@@ -9916,7 +9913,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>208</v>
@@ -9942,7 +9939,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>208</v>
@@ -9960,7 +9957,7 @@
         <v>7</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9968,7 +9965,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>208</v>
@@ -9992,7 +9989,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>224</v>
@@ -10016,7 +10013,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>224</v>
@@ -10040,7 +10037,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>63</v>
@@ -10066,7 +10063,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>63</v>
@@ -10092,7 +10089,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>63</v>
@@ -10118,7 +10115,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>63</v>
@@ -10142,7 +10139,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>63</v>
@@ -10166,7 +10163,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>63</v>
@@ -10190,7 +10187,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>63</v>
@@ -10214,7 +10211,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C164" s="20" t="s">
         <v>63</v>
@@ -10238,7 +10235,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>63</v>
@@ -10376,7 +10373,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10513,8 +10510,8 @@
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10601,8 +10598,8 @@
       <c r="B3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>253</v>
+      <c r="C3" s="4">
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -10617,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -10659,10 +10656,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -10671,7 +10668,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -10689,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P4" s="4">
         <v>2</v>
@@ -10719,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
@@ -10737,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O5" s="4">
         <v>1</v>
@@ -10764,19 +10761,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -10824,7 +10821,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
@@ -10836,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N7" s="4">
         <v>2</v>
@@ -10860,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -10869,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -10911,10 +10908,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -10929,10 +10926,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
@@ -11025,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I11" s="4">
         <v>2</v>
@@ -11034,10 +11031,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M11" s="4">
         <v>2</v>
@@ -11052,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11088,10 +11085,10 @@
         <v>2</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
@@ -11103,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11118,10 +11115,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
@@ -11130,19 +11127,19 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L13" s="4">
         <v>2</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
@@ -11154,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11193,10 +11190,10 @@
         <v>2</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O14" s="4">
         <v>1</v>
@@ -11205,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11250,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
@@ -11292,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M16" s="4">
         <v>2</v>
@@ -11304,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="4">
         <v>2</v>
@@ -11368,6 +11365,7 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11388,19 +11386,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -11408,42 +11406,42 @@
     </row>
     <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11451,32 +11449,32 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B12" s="33"/>
     </row>
     <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -11484,18 +11482,18 @@
     </row>
     <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/TrabalhoPPIOO/Tabelas.xlsx
+++ b/TrabalhoPPIOO/Tabelas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="417">
   <si>
     <t>Classe</t>
   </si>
@@ -596,18 +596,12 @@
     <t>Glare</t>
   </si>
   <si>
-    <t>Multiplicador de dano</t>
-  </si>
-  <si>
     <t>Golduck</t>
   </si>
   <si>
     <t>Growl</t>
   </si>
   <si>
-    <t>Tipo de quem está sofrendo o ataque</t>
-  </si>
-  <si>
     <t>Mankey</t>
   </si>
   <si>
@@ -728,9 +722,6 @@
     <t>Graveler</t>
   </si>
   <si>
-    <t>Tipo do ataque</t>
-  </si>
-  <si>
     <t>Metronome</t>
   </si>
   <si>
@@ -791,9 +782,6 @@
     <t>Roar</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Doduo</t>
   </si>
   <si>
@@ -1287,6 +1275,9 @@
   </si>
   <si>
     <t>Mew</t>
+  </si>
+  <si>
+    <t>Mult</t>
   </si>
 </sst>
 </file>
@@ -1333,49 +1324,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1410,9 +1364,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1427,43 +1379,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1481,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1505,19 +1422,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1542,28 +1459,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3368,7 +3277,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>63</v>
@@ -3395,7 +3304,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>47</v>
@@ -3422,7 +3331,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>47</v>
@@ -3449,7 +3358,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>50</v>
@@ -3476,7 +3385,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>50</v>
@@ -3503,7 +3412,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>63</v>
@@ -3530,7 +3439,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>63</v>
@@ -3557,7 +3466,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>63</v>
@@ -3586,10 +3495,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="14">
@@ -3613,10 +3522,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="14">
@@ -3640,10 +3549,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="14">
@@ -3667,7 +3576,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>47</v>
@@ -3694,7 +3603,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>47</v>
@@ -3721,7 +3630,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>47</v>
@@ -3748,7 +3657,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>39</v>
@@ -3777,7 +3686,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>39</v>
@@ -3806,7 +3715,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>39</v>
@@ -3835,7 +3744,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>63</v>
@@ -3864,7 +3773,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>63</v>
@@ -3893,10 +3802,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>120</v>
@@ -3922,10 +3831,10 @@
         <v>75</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>120</v>
@@ -3951,10 +3860,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>120</v>
@@ -3980,7 +3889,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>50</v>
@@ -4007,7 +3916,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>50</v>
@@ -4034,13 +3943,13 @@
         <v>79</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E79" s="14">
         <v>90</v>
@@ -4063,13 +3972,13 @@
         <v>80</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E80" s="14">
         <v>95</v>
@@ -4092,7 +4001,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>29</v>
@@ -4119,7 +4028,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>29</v>
@@ -4146,7 +4055,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>87</v>
@@ -4175,7 +4084,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>87</v>
@@ -4204,7 +4113,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>87</v>
@@ -4233,7 +4142,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>63</v>
@@ -4260,7 +4169,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>63</v>
@@ -4289,7 +4198,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>40</v>
@@ -4316,7 +4225,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>40</v>
@@ -4343,7 +4252,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>63</v>
@@ -4370,7 +4279,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>63</v>
@@ -4399,7 +4308,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>89</v>
@@ -4428,7 +4337,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>89</v>
@@ -4457,7 +4366,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>89</v>
@@ -4486,10 +4395,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>120</v>
@@ -4515,10 +4424,10 @@
         <v>96</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="14">
@@ -4542,10 +4451,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D97" s="16"/>
       <c r="E97" s="14">
@@ -4569,7 +4478,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>63</v>
@@ -4596,7 +4505,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>63</v>
@@ -4623,7 +4532,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>29</v>
@@ -4650,7 +4559,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>29</v>
@@ -4677,13 +4586,13 @@
         <v>102</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E102" s="14">
         <v>60</v>
@@ -4706,13 +4615,13 @@
         <v>103</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E103" s="14">
         <v>95</v>
@@ -4735,7 +4644,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>120</v>
@@ -4762,7 +4671,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>120</v>
@@ -4789,7 +4698,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>47</v>
@@ -4816,7 +4725,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>47</v>
@@ -4843,7 +4752,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>87</v>
@@ -4870,7 +4779,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>40</v>
@@ -4897,7 +4806,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>40</v>
@@ -4924,13 +4833,13 @@
         <v>111</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E111" s="14">
         <v>80</v>
@@ -4953,13 +4862,13 @@
         <v>112</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E112" s="14">
         <v>105</v>
@@ -4982,7 +4891,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>87</v>
@@ -5009,7 +4918,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>39</v>
@@ -5036,7 +4945,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>87</v>
@@ -5063,7 +4972,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>63</v>
@@ -5090,7 +4999,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>63</v>
@@ -5117,7 +5026,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>63</v>
@@ -5144,7 +5053,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>63</v>
@@ -5171,7 +5080,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>63</v>
@@ -5198,13 +5107,13 @@
         <v>121</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E121" s="14">
         <v>60</v>
@@ -5227,10 +5136,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="14">
@@ -5254,7 +5163,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>6</v>
@@ -5283,13 +5192,13 @@
         <v>124</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>132</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E124" s="14">
         <v>65</v>
@@ -5312,7 +5221,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>29</v>
@@ -5339,7 +5248,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>50</v>
@@ -5366,7 +5275,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>6</v>
@@ -5393,7 +5302,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>87</v>
@@ -5420,7 +5329,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>63</v>
@@ -5447,7 +5356,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>63</v>
@@ -5476,7 +5385,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>63</v>
@@ -5505,7 +5414,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>87</v>
@@ -5532,7 +5441,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>87</v>
@@ -5559,7 +5468,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>63</v>
@@ -5586,7 +5495,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>29</v>
@@ -5613,7 +5522,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>50</v>
@@ -5640,7 +5549,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>87</v>
@@ -5667,10 +5576,10 @@
         <v>138</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>63</v>
@@ -5696,10 +5605,10 @@
         <v>139</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>63</v>
@@ -5725,10 +5634,10 @@
         <v>140</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>63</v>
@@ -5754,10 +5663,10 @@
         <v>141</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>63</v>
@@ -5783,10 +5692,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>59</v>
@@ -5812,7 +5721,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>87</v>
@@ -5839,7 +5748,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>132</v>
@@ -5868,7 +5777,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>29</v>
@@ -5897,7 +5806,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>50</v>
@@ -5926,7 +5835,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>25</v>
@@ -5953,7 +5862,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>25</v>
@@ -5980,7 +5889,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>25</v>
@@ -6009,10 +5918,10 @@
         <v>150</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D150" s="16"/>
       <c r="E150" s="14">
@@ -6036,10 +5945,10 @@
         <v>151</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="14">
@@ -7993,7 +7902,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>87</v>
@@ -8011,7 +7920,7 @@
         <v>9</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8019,7 +7928,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>87</v>
@@ -8037,7 +7946,7 @@
         <v>9</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8045,7 +7954,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>87</v>
@@ -8071,7 +7980,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>87</v>
@@ -8095,7 +8004,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>87</v>
@@ -8121,7 +8030,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>87</v>
@@ -8147,7 +8056,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>87</v>
@@ -8171,7 +8080,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>87</v>
@@ -8197,7 +8106,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>87</v>
@@ -8221,7 +8130,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>87</v>
@@ -8239,7 +8148,7 @@
         <v>16</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8247,7 +8156,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>87</v>
@@ -8271,7 +8180,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>87</v>
@@ -8289,7 +8198,7 @@
         <v>9</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8297,7 +8206,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>87</v>
@@ -8323,7 +8232,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>87</v>
@@ -8347,7 +8256,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>87</v>
@@ -8371,7 +8280,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>87</v>
@@ -8395,7 +8304,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>87</v>
@@ -8419,7 +8328,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>87</v>
@@ -8437,7 +8346,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8445,7 +8354,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>87</v>
@@ -8469,7 +8378,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>87</v>
@@ -8493,7 +8402,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>87</v>
@@ -8517,7 +8426,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>87</v>
@@ -8543,7 +8452,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>87</v>
@@ -8567,7 +8476,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>87</v>
@@ -8585,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8593,7 +8502,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>87</v>
@@ -8617,7 +8526,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>87</v>
@@ -8643,7 +8552,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>87</v>
@@ -8667,7 +8576,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>87</v>
@@ -8685,7 +8594,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8693,7 +8602,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>87</v>
@@ -8719,7 +8628,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C105" s="20" t="s">
         <v>87</v>
@@ -8737,7 +8646,7 @@
         <v>9</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8745,7 +8654,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>87</v>
@@ -8771,7 +8680,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>87</v>
@@ -8795,7 +8704,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>87</v>
@@ -8819,7 +8728,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>87</v>
@@ -8843,7 +8752,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>87</v>
@@ -8869,7 +8778,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>87</v>
@@ -8887,7 +8796,7 @@
         <v>7</v>
       </c>
       <c r="H111" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -8895,7 +8804,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>87</v>
@@ -8921,7 +8830,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>87</v>
@@ -8947,7 +8856,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>87</v>
@@ -8971,7 +8880,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>87</v>
@@ -8997,7 +8906,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>87</v>
@@ -9021,7 +8930,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>87</v>
@@ -9047,7 +8956,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>87</v>
@@ -9071,7 +8980,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>87</v>
@@ -9095,7 +9004,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>87</v>
@@ -9121,7 +9030,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>87</v>
@@ -9145,7 +9054,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>87</v>
@@ -9163,7 +9072,7 @@
         <v>9</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9171,7 +9080,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>87</v>
@@ -9195,7 +9104,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>87</v>
@@ -9213,7 +9122,7 @@
         <v>9</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9221,7 +9130,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>87</v>
@@ -9247,7 +9156,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>87</v>
@@ -9273,7 +9182,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>87</v>
@@ -9297,7 +9206,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>87</v>
@@ -9321,7 +9230,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>87</v>
@@ -9345,7 +9254,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>87</v>
@@ -9369,7 +9278,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>87</v>
@@ -9395,7 +9304,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>40</v>
@@ -9413,7 +9322,7 @@
         <v>9</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9421,7 +9330,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>40</v>
@@ -9439,7 +9348,7 @@
         <v>9</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9447,7 +9356,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>40</v>
@@ -9473,7 +9382,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>40</v>
@@ -9499,7 +9408,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>40</v>
@@ -9517,7 +9426,7 @@
         <v>16</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9525,7 +9434,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>40</v>
@@ -9543,7 +9452,7 @@
         <v>16</v>
       </c>
       <c r="H137" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9551,7 +9460,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>40</v>
@@ -9569,7 +9478,7 @@
         <v>16</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9577,7 +9486,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>40</v>
@@ -9603,10 +9512,10 @@
         <v>140</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D140" s="18">
         <v>30</v>
@@ -9621,7 +9530,7 @@
         <v>9</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9629,10 +9538,10 @@
         <v>141</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D141" s="18">
         <v>20</v>
@@ -9647,7 +9556,7 @@
         <v>9</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9655,10 +9564,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D142" s="18">
         <v>30</v>
@@ -9673,7 +9582,7 @@
         <v>9</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9681,10 +9590,10 @@
         <v>143</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D143" s="18">
         <v>25</v>
@@ -9699,7 +9608,7 @@
         <v>16</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9707,10 +9616,10 @@
         <v>144</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D144" s="18">
         <v>15</v>
@@ -9731,10 +9640,10 @@
         <v>145</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D145" s="18">
         <v>20</v>
@@ -9757,10 +9666,10 @@
         <v>146</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D146" s="18">
         <v>15</v>
@@ -9775,7 +9684,7 @@
         <v>9</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9783,10 +9692,10 @@
         <v>147</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D147" s="18">
         <v>30</v>
@@ -9801,7 +9710,7 @@
         <v>9</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9809,10 +9718,10 @@
         <v>148</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D148" s="18">
         <v>40</v>
@@ -9827,7 +9736,7 @@
         <v>9</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9835,10 +9744,10 @@
         <v>149</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D149" s="18">
         <v>20</v>
@@ -9853,7 +9762,7 @@
         <v>16</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9861,10 +9770,10 @@
         <v>150</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D150" s="18">
         <v>10</v>
@@ -9879,7 +9788,7 @@
         <v>9</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9887,10 +9796,10 @@
         <v>151</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D151" s="18">
         <v>15</v>
@@ -9913,10 +9822,10 @@
         <v>152</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D152" s="18">
         <v>20</v>
@@ -9939,10 +9848,10 @@
         <v>153</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D153" s="18">
         <v>10</v>
@@ -9957,7 +9866,7 @@
         <v>7</v>
       </c>
       <c r="H153" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -9965,10 +9874,10 @@
         <v>154</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D154" s="18">
         <v>20</v>
@@ -9989,10 +9898,10 @@
         <v>155</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D155" s="18">
         <v>10</v>
@@ -10013,10 +9922,10 @@
         <v>156</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D156" s="18">
         <v>15</v>
@@ -10037,7 +9946,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>63</v>
@@ -10063,7 +9972,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>63</v>
@@ -10089,7 +9998,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>63</v>
@@ -10115,7 +10024,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>63</v>
@@ -10139,7 +10048,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>63</v>
@@ -10163,7 +10072,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>63</v>
@@ -10187,7 +10096,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>63</v>
@@ -10211,7 +10120,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C164" s="20" t="s">
         <v>63</v>
@@ -10235,7 +10144,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>63</v>
@@ -10508,10 +10417,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan5"/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10519,851 +10428,807 @@
     <col min="1" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="9" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="P2" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="23">
+        <v>1</v>
+      </c>
+      <c r="I2" s="23">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="13" t="s">
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="23">
+        <v>1</v>
+      </c>
+      <c r="L2" s="23">
+        <v>1</v>
+      </c>
+      <c r="M2" s="23">
+        <v>1</v>
+      </c>
+      <c r="N2" s="23">
+        <v>1</v>
+      </c>
+      <c r="O2" s="23">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B3" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23">
         <v>2</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="H3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="23">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="J3" s="23">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23">
+        <v>1</v>
+      </c>
+      <c r="L3" s="23">
+        <v>1</v>
+      </c>
+      <c r="M3" s="23">
+        <v>1</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="23">
         <v>2</v>
       </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="13" t="s">
+      <c r="P3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="23">
         <v>2</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="I4" s="23">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23">
+        <v>1</v>
+      </c>
+      <c r="L4" s="23">
         <v>2</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="13" t="s">
+      <c r="M4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="23">
+        <v>1</v>
+      </c>
+      <c r="O4" s="23">
+        <v>1</v>
+      </c>
+      <c r="P4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="23">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="I5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="23">
         <v>2</v>
       </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="13" t="s">
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="23">
+        <v>1</v>
+      </c>
+      <c r="O5" s="23">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="E6" s="23">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F6" s="23">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="H6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23">
         <v>2</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="K6" s="23">
+        <v>1</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="23">
         <v>2</v>
       </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="N6" s="23">
+        <v>1</v>
+      </c>
+      <c r="O6" s="23">
+        <v>1</v>
+      </c>
+      <c r="P6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="23">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
         <v>2</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
+      <c r="J7" s="23">
         <v>2</v>
       </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="K7" s="23">
+        <v>1</v>
+      </c>
+      <c r="L7" s="23">
+        <v>1</v>
+      </c>
+      <c r="M7" s="23">
+        <v>1</v>
+      </c>
+      <c r="N7" s="23">
+        <v>1</v>
+      </c>
+      <c r="O7" s="23">
         <v>2</v>
       </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="13" t="s">
+      <c r="P7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="23">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1</v>
+      </c>
+      <c r="L8" s="23">
         <v>2</v>
       </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="M8" s="23">
+        <v>1</v>
+      </c>
+      <c r="N8" s="23">
         <v>2</v>
       </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="13" t="s">
+      <c r="O8" s="23">
+        <v>1</v>
+      </c>
+      <c r="P8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="4">
+      <c r="B9" s="23">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23">
         <v>2</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="J9" s="23">
+        <v>1</v>
+      </c>
+      <c r="K9" s="23">
+        <v>1</v>
+      </c>
+      <c r="L9" s="23">
+        <v>1</v>
+      </c>
+      <c r="M9" s="23">
+        <v>1</v>
+      </c>
+      <c r="N9" s="23">
         <v>0</v>
       </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="13" t="s">
+      <c r="O9" s="23">
+        <v>1</v>
+      </c>
+      <c r="P9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="23">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="23">
         <v>2</v>
       </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="M10" s="23">
+        <v>1</v>
+      </c>
+      <c r="N10" s="23">
+        <v>1</v>
+      </c>
+      <c r="O10" s="23">
         <v>2</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="13" t="s">
+      <c r="P10" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
         <v>2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G11" s="23">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1</v>
+      </c>
+      <c r="J11" s="23">
         <v>2</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="13" t="s">
+      <c r="K11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="23">
+        <v>1</v>
+      </c>
+      <c r="O11" s="23">
+        <v>1</v>
+      </c>
+      <c r="P11" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="B12" s="23">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="23">
         <v>2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G12" s="23">
         <v>2</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="H12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="23">
         <v>2</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="13" t="s">
+      <c r="L12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="23">
+        <v>1</v>
+      </c>
+      <c r="N12" s="23">
+        <v>1</v>
+      </c>
+      <c r="O12" s="23">
+        <v>1</v>
+      </c>
+      <c r="P12" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23">
         <v>2</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="L13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="23">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23">
+        <v>1</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23">
         <v>2</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="13" t="s">
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23">
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
+        <v>1</v>
+      </c>
+      <c r="L14" s="23">
+        <v>1</v>
+      </c>
+      <c r="M14" s="23">
+        <v>1</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="23">
+        <v>1</v>
+      </c>
+      <c r="P14" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
         <v>2</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23">
         <v>2</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23">
+        <v>1</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="23">
         <v>2</v>
       </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="M15" s="23">
+        <v>1</v>
+      </c>
+      <c r="N15" s="23">
+        <v>1</v>
+      </c>
+      <c r="O15" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="11" t="s">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23">
+        <v>1</v>
+      </c>
+      <c r="K16" s="23">
+        <v>1</v>
+      </c>
+      <c r="L16" s="23">
+        <v>1</v>
+      </c>
+      <c r="M16" s="23">
+        <v>1</v>
+      </c>
+      <c r="N16" s="23">
+        <v>1</v>
+      </c>
+      <c r="O16" s="23">
+        <v>1</v>
+      </c>
+      <c r="P16" s="23">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:Q1"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11385,20 +11250,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="33"/>
+      <c r="A2" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -11406,42 +11271,42 @@
     </row>
     <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11449,32 +11314,32 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="B11" s="31"/>
+      <c r="A11" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B12" s="33"/>
+      <c r="A12" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -11482,18 +11347,18 @@
     </row>
     <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
